--- a/biology/Botanique/Wedelia/Wedelia.xlsx
+++ b/biology/Botanique/Wedelia/Wedelia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Wedelia est un genre de plante à fleurs de la famille des Asteraceae.
 </t>
@@ -511,7 +523,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">De nombreuses espèces ont été transférées dans les genres Angelphytum, Aspilia, Baltimora, Blainvillea, Chrysogonum, Eclipta, Elaphandra, Eleutheranthera, Guizotia, Heliopsis, Kingianthus, Lasianthaea, Melampodium, Melanthera, Moonia, Sphagneticola, Synedrella, Tuberculocarpus, Verbesina, Viguiera, Villanova, Wollastonia et Zexmenia.
 </t>
@@ -542,7 +556,9 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Wedelia acapulcensis
